--- a/PI02-ANALISTA_DE_INVERSION/ROE/KPI_MICROSOFT.xlsx
+++ b/PI02-ANALISTA_DE_INVERSION/ROE/KPI_MICROSOFT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03a7e76c497c2c87/Escritorio/PI03-ANALISTA_DE_INVERSION/ROE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03a7e76c497c2c87/Escritorio/PI02-ANALISTA_DE_INVERSION/ROE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01F4522A-C797-4FC1-B0B0-7091A282C792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{01F4522A-C797-4FC1-B0B0-7091A282C792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{413AEAD9-1617-4572-ABC4-8CBF72AAF7F4}"/>
   <bookViews>
-    <workbookView xWindow="516" yWindow="1080" windowWidth="27000" windowHeight="12396" xr2:uid="{2CEAAC19-3723-4B33-9BF6-312CB67DA90B}"/>
+    <workbookView xWindow="28830" yWindow="3090" windowWidth="27000" windowHeight="12390" xr2:uid="{2CEAAC19-3723-4B33-9BF6-312CB67DA90B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>SUMA</t>
+    <t>Fecha</t>
   </si>
   <si>
-    <t>KPI_Microsoft</t>
+    <t>Ventas</t>
+  </si>
+  <si>
+    <t>Kpi</t>
   </si>
 </sst>
 </file>
@@ -80,7 +83,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -88,6 +91,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -103,10 +107,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -406,29 +406,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E841B5F7-A4E2-449D-848B-9F5FF7AAC682}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2022</v>
       </c>
       <c r="B2" s="2">
         <v>0.19939999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="3">
+        <f>B2+B3/3</f>
+        <v>0.2606</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2021</v>
       </c>
@@ -436,7 +445,7 @@
         <v>0.18360000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2020</v>
       </c>
@@ -444,7 +453,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2019</v>
       </c>
@@ -452,7 +461,7 @@
         <v>0.13689999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2018</v>
       </c>
@@ -460,7 +469,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2017</v>
       </c>
@@ -468,7 +477,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2016</v>
       </c>
@@ -476,7 +485,7 @@
         <v>8.6699999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2015</v>
       </c>
@@ -484,7 +493,7 @@
         <v>6.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2014</v>
       </c>
@@ -492,7 +501,7 @@
         <v>0.12809999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2013</v>
       </c>
@@ -500,7 +509,7 @@
         <v>0.1535</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2012</v>
       </c>
@@ -508,7 +517,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2011</v>
       </c>
@@ -516,7 +525,7 @@
         <v>0.21299999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2010</v>
       </c>
@@ -524,7 +533,7 @@
         <v>0.21790000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2009</v>
       </c>
@@ -532,7 +541,7 @@
         <v>0.18709999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2008</v>
       </c>
